--- a/Dataset_Limpio/Hoja4_Veloc%_por_prov.xlsx
+++ b/Dataset_Limpio/Hoja4_Veloc%_por_prov.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B3" t="n">
         <v>2024</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B4" t="n">
         <v>2024</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B5" t="n">
         <v>2024</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B6" t="n">
         <v>2024</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="B7" t="n">
         <v>2024</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B8" t="n">
         <v>2024</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="B9" t="n">
         <v>2024</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45292</v>
+        <v>45300</v>
       </c>
       <c r="B10" t="n">
         <v>2024</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45292</v>
+        <v>45301</v>
       </c>
       <c r="B11" t="n">
         <v>2024</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45292</v>
+        <v>45302</v>
       </c>
       <c r="B12" t="n">
         <v>2024</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45292</v>
+        <v>45303</v>
       </c>
       <c r="B13" t="n">
         <v>2024</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45292</v>
+        <v>45304</v>
       </c>
       <c r="B14" t="n">
         <v>2024</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45292</v>
+        <v>45305</v>
       </c>
       <c r="B15" t="n">
         <v>2024</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45292</v>
+        <v>45306</v>
       </c>
       <c r="B16" t="n">
         <v>2024</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45292</v>
+        <v>45307</v>
       </c>
       <c r="B17" t="n">
         <v>2024</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45292</v>
+        <v>45308</v>
       </c>
       <c r="B18" t="n">
         <v>2024</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45292</v>
+        <v>45309</v>
       </c>
       <c r="B19" t="n">
         <v>2024</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45292</v>
+        <v>45310</v>
       </c>
       <c r="B20" t="n">
         <v>2024</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45292</v>
+        <v>45311</v>
       </c>
       <c r="B21" t="n">
         <v>2024</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45292</v>
+        <v>45312</v>
       </c>
       <c r="B22" t="n">
         <v>2024</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45292</v>
+        <v>45313</v>
       </c>
       <c r="B23" t="n">
         <v>2024</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45292</v>
+        <v>45314</v>
       </c>
       <c r="B24" t="n">
         <v>2024</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45292</v>
+        <v>45315</v>
       </c>
       <c r="B25" t="n">
         <v>2024</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45200</v>
+        <v>45224</v>
       </c>
       <c r="B26" t="n">
         <v>2023</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45200</v>
+        <v>45225</v>
       </c>
       <c r="B27" t="n">
         <v>2023</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45200</v>
+        <v>45226</v>
       </c>
       <c r="B28" t="n">
         <v>2023</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45200</v>
+        <v>45227</v>
       </c>
       <c r="B29" t="n">
         <v>2023</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45200</v>
+        <v>45228</v>
       </c>
       <c r="B30" t="n">
         <v>2023</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45200</v>
+        <v>45229</v>
       </c>
       <c r="B31" t="n">
         <v>2023</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B32" t="n">
         <v>2023</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B33" t="n">
         <v>2023</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B34" t="n">
         <v>2023</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B35" t="n">
         <v>2023</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B36" t="n">
         <v>2023</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B37" t="n">
         <v>2023</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B38" t="n">
         <v>2023</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B39" t="n">
         <v>2023</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B40" t="n">
         <v>2023</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B41" t="n">
         <v>2023</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B42" t="n">
         <v>2023</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B43" t="n">
         <v>2023</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B44" t="n">
         <v>2023</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B45" t="n">
         <v>2023</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B46" t="n">
         <v>2023</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B47" t="n">
         <v>2023</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B48" t="n">
         <v>2023</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B49" t="n">
         <v>2023</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B50" t="n">
         <v>2023</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B51" t="n">
         <v>2023</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B52" t="n">
         <v>2023</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B53" t="n">
         <v>2023</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B54" t="n">
         <v>2023</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B55" t="n">
         <v>2023</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B56" t="n">
         <v>2023</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B57" t="n">
         <v>2023</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B58" t="n">
         <v>2023</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B59" t="n">
         <v>2023</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B60" t="n">
         <v>2023</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B61" t="n">
         <v>2023</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B62" t="n">
         <v>2023</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B63" t="n">
         <v>2023</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B64" t="n">
         <v>2023</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B65" t="n">
         <v>2023</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B66" t="n">
         <v>2023</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B67" t="n">
         <v>2023</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B68" t="n">
         <v>2023</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B69" t="n">
         <v>2023</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B70" t="n">
         <v>2023</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B71" t="n">
         <v>2023</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B72" t="n">
         <v>2023</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B73" t="n">
         <v>2023</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B74" t="n">
         <v>2023</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B75" t="n">
         <v>2023</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B76" t="n">
         <v>2023</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B77" t="n">
         <v>2023</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B78" t="n">
         <v>2023</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" t="n">
         <v>2023</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B80" t="n">
         <v>2023</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B81" t="n">
         <v>2023</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B82" t="n">
         <v>2023</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B83" t="n">
         <v>2023</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B84" t="n">
         <v>2023</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B85" t="n">
         <v>2023</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B86" t="n">
         <v>2023</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B87" t="n">
         <v>2023</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B88" t="n">
         <v>2023</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B89" t="n">
         <v>2023</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B90" t="n">
         <v>2023</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B91" t="n">
         <v>2023</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B92" t="n">
         <v>2023</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B93" t="n">
         <v>2023</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B94" t="n">
         <v>2023</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B95" t="n">
         <v>2023</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B96" t="n">
         <v>2023</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B97" t="n">
         <v>2023</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B98" t="n">
         <v>2023</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B99" t="n">
         <v>2023</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B100" t="n">
         <v>2023</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B101" t="n">
         <v>2023</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B102" t="n">
         <v>2023</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B103" t="n">
         <v>2023</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B104" t="n">
         <v>2023</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B105" t="n">
         <v>2023</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B106" t="n">
         <v>2023</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B107" t="n">
         <v>2023</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B108" t="n">
         <v>2023</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B109" t="n">
         <v>2023</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B110" t="n">
         <v>2023</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B111" t="n">
         <v>2023</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B112" t="n">
         <v>2023</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B113" t="n">
         <v>2023</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B114" t="n">
         <v>2023</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B115" t="n">
         <v>2023</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B116" t="n">
         <v>2023</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B117" t="n">
         <v>2023</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B118" t="n">
         <v>2023</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B119" t="n">
         <v>2023</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B120" t="n">
         <v>2023</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B121" t="n">
         <v>2023</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B122" t="n">
         <v>2022</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B123" t="n">
         <v>2022</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B124" t="n">
         <v>2022</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B125" t="n">
         <v>2022</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B126" t="n">
         <v>2022</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B127" t="n">
         <v>2022</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B128" t="n">
         <v>2022</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B129" t="n">
         <v>2022</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B130" t="n">
         <v>2022</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B131" t="n">
         <v>2022</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B132" t="n">
         <v>2022</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
         <v>2022</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B134" t="n">
         <v>2022</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B135" t="n">
         <v>2022</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B136" t="n">
         <v>2022</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B137" t="n">
         <v>2022</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B138" t="n">
         <v>2022</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B139" t="n">
         <v>2022</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B140" t="n">
         <v>2022</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B141" t="n">
         <v>2022</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B142" t="n">
         <v>2022</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B143" t="n">
         <v>2022</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B144" t="n">
         <v>2022</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B145" t="n">
         <v>2022</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B146" t="n">
         <v>2022</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B147" t="n">
         <v>2022</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B148" t="n">
         <v>2022</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B149" t="n">
         <v>2022</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B150" t="n">
         <v>2022</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B151" t="n">
         <v>2022</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B152" t="n">
         <v>2022</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B153" t="n">
         <v>2022</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B154" t="n">
         <v>2022</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B155" t="n">
         <v>2022</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B156" t="n">
         <v>2022</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B157" t="n">
         <v>2022</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B158" t="n">
         <v>2022</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B159" t="n">
         <v>2022</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B160" t="n">
         <v>2022</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B161" t="n">
         <v>2022</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B162" t="n">
         <v>2022</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B163" t="n">
         <v>2022</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B164" t="n">
         <v>2022</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B165" t="n">
         <v>2022</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B166" t="n">
         <v>2022</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B167" t="n">
         <v>2022</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B168" t="n">
         <v>2022</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B169" t="n">
         <v>2022</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B170" t="n">
         <v>2022</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B171" t="n">
         <v>2022</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B172" t="n">
         <v>2022</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B173" t="n">
         <v>2022</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B174" t="n">
         <v>2022</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B175" t="n">
         <v>2022</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B176" t="n">
         <v>2022</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B177" t="n">
         <v>2022</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B178" t="n">
         <v>2022</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B179" t="n">
         <v>2022</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B180" t="n">
         <v>2022</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B181" t="n">
         <v>2022</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B182" t="n">
         <v>2022</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B183" t="n">
         <v>2022</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B184" t="n">
         <v>2022</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B185" t="n">
         <v>2022</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B186" t="n">
         <v>2022</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B187" t="n">
         <v>2022</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B188" t="n">
         <v>2022</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B189" t="n">
         <v>2022</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B190" t="n">
         <v>2022</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B191" t="n">
         <v>2022</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B192" t="n">
         <v>2022</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B193" t="n">
         <v>2022</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B194" t="n">
         <v>2022</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B195" t="n">
         <v>2022</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B196" t="n">
         <v>2022</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B197" t="n">
         <v>2022</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B198" t="n">
         <v>2022</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B199" t="n">
         <v>2022</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B200" t="n">
         <v>2022</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B201" t="n">
         <v>2022</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B202" t="n">
         <v>2022</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B203" t="n">
         <v>2022</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B204" t="n">
         <v>2022</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B205" t="n">
         <v>2022</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B206" t="n">
         <v>2022</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B207" t="n">
         <v>2022</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B208" t="n">
         <v>2022</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B209" t="n">
         <v>2022</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B210" t="n">
         <v>2022</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B211" t="n">
         <v>2022</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B212" t="n">
         <v>2022</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B213" t="n">
         <v>2022</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B214" t="n">
         <v>2022</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B215" t="n">
         <v>2022</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B216" t="n">
         <v>2022</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B217" t="n">
         <v>2022</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B218" t="n">
         <v>2021</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B219" t="n">
         <v>2021</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B220" t="n">
         <v>2021</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B221" t="n">
         <v>2021</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B222" t="n">
         <v>2021</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B223" t="n">
         <v>2021</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B224" t="n">
         <v>2021</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B225" t="n">
         <v>2021</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B226" t="n">
         <v>2021</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B227" t="n">
         <v>2021</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B228" t="n">
         <v>2021</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B229" t="n">
         <v>2021</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B230" t="n">
         <v>2021</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B231" t="n">
         <v>2021</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B232" t="n">
         <v>2021</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B233" t="n">
         <v>2021</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B234" t="n">
         <v>2021</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B235" t="n">
         <v>2021</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B236" t="n">
         <v>2021</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B237" t="n">
         <v>2021</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B238" t="n">
         <v>2021</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B239" t="n">
         <v>2021</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B240" t="n">
         <v>2021</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B241" t="n">
         <v>2021</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B242" t="n">
         <v>2021</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B243" t="n">
         <v>2021</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B244" t="n">
         <v>2021</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B245" t="n">
         <v>2021</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B246" t="n">
         <v>2021</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B247" t="n">
         <v>2021</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B248" t="n">
         <v>2021</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B249" t="n">
         <v>2021</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B250" t="n">
         <v>2021</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B251" t="n">
         <v>2021</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B252" t="n">
         <v>2021</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B253" t="n">
         <v>2021</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B254" t="n">
         <v>2021</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B255" t="n">
         <v>2021</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B256" t="n">
         <v>2021</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B257" t="n">
         <v>2021</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B258" t="n">
         <v>2021</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B259" t="n">
         <v>2021</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B260" t="n">
         <v>2021</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B261" t="n">
         <v>2021</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B262" t="n">
         <v>2021</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B263" t="n">
         <v>2021</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B264" t="n">
         <v>2021</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B265" t="n">
         <v>2021</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B266" t="n">
         <v>2021</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B267" t="n">
         <v>2021</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B268" t="n">
         <v>2021</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B269" t="n">
         <v>2021</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B270" t="n">
         <v>2021</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B271" t="n">
         <v>2021</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B272" t="n">
         <v>2021</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B273" t="n">
         <v>2021</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B274" t="n">
         <v>2021</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B275" t="n">
         <v>2021</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B276" t="n">
         <v>2021</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B277" t="n">
         <v>2021</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B278" t="n">
         <v>2021</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B279" t="n">
         <v>2021</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B280" t="n">
         <v>2021</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B281" t="n">
         <v>2021</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B282" t="n">
         <v>2021</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B283" t="n">
         <v>2021</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B284" t="n">
         <v>2021</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B285" t="n">
         <v>2021</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B286" t="n">
         <v>2021</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B287" t="n">
         <v>2021</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B288" t="n">
         <v>2021</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B289" t="n">
         <v>2021</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B290" t="n">
         <v>2021</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B291" t="n">
         <v>2021</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B292" t="n">
         <v>2021</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B293" t="n">
         <v>2021</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B294" t="n">
         <v>2021</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B295" t="n">
         <v>2021</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B296" t="n">
         <v>2021</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B297" t="n">
         <v>2021</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B298" t="n">
         <v>2021</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B299" t="n">
         <v>2021</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B300" t="n">
         <v>2021</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B301" t="n">
         <v>2021</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B302" t="n">
         <v>2021</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B303" t="n">
         <v>2021</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B304" t="n">
         <v>2021</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B305" t="n">
         <v>2021</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B306" t="n">
         <v>2021</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B307" t="n">
         <v>2021</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B308" t="n">
         <v>2021</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B309" t="n">
         <v>2021</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B310" t="n">
         <v>2021</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B311" t="n">
         <v>2021</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B312" t="n">
         <v>2021</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B313" t="n">
         <v>2021</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B314" t="n">
         <v>2020</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B315" t="n">
         <v>2020</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B316" t="n">
         <v>2020</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B317" t="n">
         <v>2020</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B318" t="n">
         <v>2020</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B319" t="n">
         <v>2020</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B320" t="n">
         <v>2020</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B321" t="n">
         <v>2020</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B322" t="n">
         <v>2020</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B323" t="n">
         <v>2020</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B324" t="n">
         <v>2020</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B325" t="n">
         <v>2020</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B326" t="n">
         <v>2020</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B327" t="n">
         <v>2020</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B328" t="n">
         <v>2020</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B329" t="n">
         <v>2020</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B330" t="n">
         <v>2020</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B331" t="n">
         <v>2020</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B332" t="n">
         <v>2020</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B333" t="n">
         <v>2020</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B334" t="n">
         <v>2020</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B335" t="n">
         <v>2020</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B336" t="n">
         <v>2020</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337" t="n">
         <v>2020</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B338" t="n">
         <v>2020</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B339" t="n">
         <v>2020</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B340" t="n">
         <v>2020</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B341" t="n">
         <v>2020</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B342" t="n">
         <v>2020</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B343" t="n">
         <v>2020</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B344" t="n">
         <v>2020</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B345" t="n">
         <v>2020</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B346" t="n">
         <v>2020</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B347" t="n">
         <v>2020</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B348" t="n">
         <v>2020</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B349" t="n">
         <v>2020</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B350" t="n">
         <v>2020</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B351" t="n">
         <v>2020</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B352" t="n">
         <v>2020</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B353" t="n">
         <v>2020</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B354" t="n">
         <v>2020</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B355" t="n">
         <v>2020</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B356" t="n">
         <v>2020</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B357" t="n">
         <v>2020</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B358" t="n">
         <v>2020</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B359" t="n">
         <v>2020</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B360" t="n">
         <v>2020</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B361" t="n">
         <v>2020</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B362" t="n">
         <v>2020</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B363" t="n">
         <v>2020</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B364" t="n">
         <v>2020</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B365" t="n">
         <v>2020</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B366" t="n">
         <v>2020</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B367" t="n">
         <v>2020</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B368" t="n">
         <v>2020</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B369" t="n">
         <v>2020</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B370" t="n">
         <v>2020</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B371" t="n">
         <v>2020</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B372" t="n">
         <v>2020</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B373" t="n">
         <v>2020</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B374" t="n">
         <v>2020</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B375" t="n">
         <v>2020</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B376" t="n">
         <v>2020</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B377" t="n">
         <v>2020</v>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B378" t="n">
         <v>2020</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B379" t="n">
         <v>2020</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B380" t="n">
         <v>2020</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B381" t="n">
         <v>2020</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B382" t="n">
         <v>2020</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B383" t="n">
         <v>2020</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B384" t="n">
         <v>2020</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B385" t="n">
         <v>2020</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B386" t="n">
         <v>2020</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B387" t="n">
         <v>2020</v>
@@ -7802,7 +7802,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B388" t="n">
         <v>2020</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B389" t="n">
         <v>2020</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B390" t="n">
         <v>2020</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B391" t="n">
         <v>2020</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B392" t="n">
         <v>2020</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B393" t="n">
         <v>2020</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B394" t="n">
         <v>2020</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B395" t="n">
         <v>2020</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B396" t="n">
         <v>2020</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B397" t="n">
         <v>2020</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B398" t="n">
         <v>2020</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B399" t="n">
         <v>2020</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B400" t="n">
         <v>2020</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B401" t="n">
         <v>2020</v>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B402" t="n">
         <v>2020</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B403" t="n">
         <v>2020</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B404" t="n">
         <v>2020</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B405" t="n">
         <v>2020</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B406" t="n">
         <v>2020</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B407" t="n">
         <v>2020</v>
@@ -8182,7 +8182,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B408" t="n">
         <v>2020</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B409" t="n">
         <v>2020</v>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B410" t="n">
         <v>2019</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B411" t="n">
         <v>2019</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B412" t="n">
         <v>2019</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B413" t="n">
         <v>2019</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B414" t="n">
         <v>2019</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B415" t="n">
         <v>2019</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B416" t="n">
         <v>2019</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B417" t="n">
         <v>2019</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B418" t="n">
         <v>2019</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B419" t="n">
         <v>2019</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B420" t="n">
         <v>2019</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B421" t="n">
         <v>2019</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B422" t="n">
         <v>2019</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B423" t="n">
         <v>2019</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B424" t="n">
         <v>2019</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B425" t="n">
         <v>2019</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B426" t="n">
         <v>2019</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B427" t="n">
         <v>2019</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B428" t="n">
         <v>2019</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B429" t="n">
         <v>2019</v>
@@ -8600,7 +8600,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B430" t="n">
         <v>2019</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B431" t="n">
         <v>2019</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B432" t="n">
         <v>2019</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B433" t="n">
         <v>2019</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B434" t="n">
         <v>2019</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B435" t="n">
         <v>2019</v>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B436" t="n">
         <v>2019</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B437" t="n">
         <v>2019</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B438" t="n">
         <v>2019</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B439" t="n">
         <v>2019</v>
@@ -8790,7 +8790,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B440" t="n">
         <v>2019</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B441" t="n">
         <v>2019</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B442" t="n">
         <v>2019</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B443" t="n">
         <v>2019</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B444" t="n">
         <v>2019</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B445" t="n">
         <v>2019</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B446" t="n">
         <v>2019</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B447" t="n">
         <v>2019</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B448" t="n">
         <v>2019</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B449" t="n">
         <v>2019</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B450" t="n">
         <v>2019</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B451" t="n">
         <v>2019</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B452" t="n">
         <v>2019</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B453" t="n">
         <v>2019</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B454" t="n">
         <v>2019</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B455" t="n">
         <v>2019</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B456" t="n">
         <v>2019</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B457" t="n">
         <v>2019</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B458" t="n">
         <v>2019</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B459" t="n">
         <v>2019</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B460" t="n">
         <v>2019</v>
@@ -9189,7 +9189,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B461" t="n">
         <v>2019</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B462" t="n">
         <v>2019</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B463" t="n">
         <v>2019</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B464" t="n">
         <v>2019</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B465" t="n">
         <v>2019</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B466" t="n">
         <v>2019</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B467" t="n">
         <v>2019</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B468" t="n">
         <v>2019</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B469" t="n">
         <v>2019</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B470" t="n">
         <v>2019</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B471" t="n">
         <v>2019</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B472" t="n">
         <v>2019</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B473" t="n">
         <v>2019</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B474" t="n">
         <v>2019</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B475" t="n">
         <v>2019</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B476" t="n">
         <v>2019</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B477" t="n">
         <v>2019</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B478" t="n">
         <v>2019</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B479" t="n">
         <v>2019</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B480" t="n">
         <v>2019</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B481" t="n">
         <v>2019</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B482" t="n">
         <v>2019</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B483" t="n">
         <v>2019</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B484" t="n">
         <v>2019</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B485" t="n">
         <v>2019</v>
@@ -9664,7 +9664,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B486" t="n">
         <v>2019</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B487" t="n">
         <v>2019</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B488" t="n">
         <v>2019</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B489" t="n">
         <v>2019</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B490" t="n">
         <v>2019</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B491" t="n">
         <v>2019</v>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B492" t="n">
         <v>2019</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B493" t="n">
         <v>2019</v>
@@ -9816,7 +9816,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B494" t="n">
         <v>2019</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B495" t="n">
         <v>2019</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B496" t="n">
         <v>2019</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B497" t="n">
         <v>2019</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B498" t="n">
         <v>2019</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B499" t="n">
         <v>2019</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B500" t="n">
         <v>2019</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B501" t="n">
         <v>2019</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B502" t="n">
         <v>2019</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B503" t="n">
         <v>2019</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B504" t="n">
         <v>2019</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B505" t="n">
         <v>2019</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B506" t="n">
         <v>2018</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B507" t="n">
         <v>2018</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B508" t="n">
         <v>2018</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B509" t="n">
         <v>2018</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B510" t="n">
         <v>2018</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B511" t="n">
         <v>2018</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B512" t="n">
         <v>2018</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B513" t="n">
         <v>2018</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B514" t="n">
         <v>2018</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B515" t="n">
         <v>2018</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B516" t="n">
         <v>2018</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B517" t="n">
         <v>2018</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B518" t="n">
         <v>2018</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B519" t="n">
         <v>2018</v>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B520" t="n">
         <v>2018</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B521" t="n">
         <v>2018</v>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B522" t="n">
         <v>2018</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B523" t="n">
         <v>2018</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B524" t="n">
         <v>2018</v>
@@ -10405,7 +10405,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B525" t="n">
         <v>2018</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B526" t="n">
         <v>2018</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B527" t="n">
         <v>2018</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B528" t="n">
         <v>2018</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B529" t="n">
         <v>2018</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B530" t="n">
         <v>2018</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B531" t="n">
         <v>2018</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B532" t="n">
         <v>2018</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B533" t="n">
         <v>2018</v>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B534" t="n">
         <v>2018</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B535" t="n">
         <v>2018</v>
@@ -10614,7 +10614,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B536" t="n">
         <v>2018</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B537" t="n">
         <v>2018</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B538" t="n">
         <v>2018</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B539" t="n">
         <v>2018</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B540" t="n">
         <v>2018</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B541" t="n">
         <v>2018</v>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B542" t="n">
         <v>2018</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B543" t="n">
         <v>2018</v>
@@ -10766,7 +10766,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B544" t="n">
         <v>2018</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B545" t="n">
         <v>2018</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B546" t="n">
         <v>2018</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B547" t="n">
         <v>2018</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B548" t="n">
         <v>2018</v>
@@ -10861,7 +10861,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B549" t="n">
         <v>2018</v>
@@ -10880,7 +10880,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B550" t="n">
         <v>2018</v>
@@ -10899,7 +10899,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B551" t="n">
         <v>2018</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B552" t="n">
         <v>2018</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B553" t="n">
         <v>2018</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B554" t="n">
         <v>2018</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B555" t="n">
         <v>2018</v>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B556" t="n">
         <v>2018</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B557" t="n">
         <v>2018</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B558" t="n">
         <v>2018</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B559" t="n">
         <v>2018</v>
@@ -11070,7 +11070,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B560" t="n">
         <v>2018</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B561" t="n">
         <v>2018</v>
@@ -11108,7 +11108,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B562" t="n">
         <v>2018</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B563" t="n">
         <v>2018</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B564" t="n">
         <v>2018</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B565" t="n">
         <v>2018</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B566" t="n">
         <v>2018</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B567" t="n">
         <v>2018</v>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B568" t="n">
         <v>2018</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B569" t="n">
         <v>2018</v>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B570" t="n">
         <v>2018</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B571" t="n">
         <v>2018</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B572" t="n">
         <v>2018</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B573" t="n">
         <v>2018</v>
@@ -11336,7 +11336,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B574" t="n">
         <v>2018</v>
@@ -11355,7 +11355,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B575" t="n">
         <v>2018</v>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B576" t="n">
         <v>2018</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B577" t="n">
         <v>2018</v>
@@ -11412,7 +11412,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B578" t="n">
         <v>2018</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B579" t="n">
         <v>2018</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B580" t="n">
         <v>2018</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B581" t="n">
         <v>2018</v>
@@ -11488,7 +11488,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B582" t="n">
         <v>2018</v>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B583" t="n">
         <v>2018</v>
@@ -11526,7 +11526,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B584" t="n">
         <v>2018</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B585" t="n">
         <v>2018</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B586" t="n">
         <v>2018</v>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B587" t="n">
         <v>2018</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B588" t="n">
         <v>2018</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B589" t="n">
         <v>2018</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B590" t="n">
         <v>2018</v>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B591" t="n">
         <v>2018</v>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B592" t="n">
         <v>2018</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B593" t="n">
         <v>2018</v>
@@ -11716,7 +11716,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B594" t="n">
         <v>2018</v>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B595" t="n">
         <v>2018</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B596" t="n">
         <v>2018</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B597" t="n">
         <v>2018</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B598" t="n">
         <v>2018</v>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B599" t="n">
         <v>2018</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B600" t="n">
         <v>2018</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B601" t="n">
         <v>2018</v>
@@ -11868,7 +11868,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B602" t="n">
         <v>2017</v>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B603" t="n">
         <v>2017</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B604" t="n">
         <v>2017</v>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B605" t="n">
         <v>2017</v>
@@ -11944,7 +11944,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B606" t="n">
         <v>2017</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B607" t="n">
         <v>2017</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B608" t="n">
         <v>2017</v>
@@ -12001,7 +12001,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B609" t="n">
         <v>2017</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B610" t="n">
         <v>2017</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B611" t="n">
         <v>2017</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B612" t="n">
         <v>2017</v>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B613" t="n">
         <v>2017</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B614" t="n">
         <v>2017</v>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B615" t="n">
         <v>2017</v>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B616" t="n">
         <v>2017</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B617" t="n">
         <v>2017</v>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B618" t="n">
         <v>2017</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B619" t="n">
         <v>2017</v>
@@ -12210,7 +12210,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B620" t="n">
         <v>2017</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B621" t="n">
         <v>2017</v>
@@ -12248,7 +12248,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B622" t="n">
         <v>2017</v>
@@ -12267,7 +12267,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B623" t="n">
         <v>2017</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B624" t="n">
         <v>2017</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>43009</v>
+        <v>43039</v>
       </c>
       <c r="B625" t="n">
         <v>2017</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B626" t="n">
         <v>2017</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B627" t="n">
         <v>2017</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B628" t="n">
         <v>2017</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B629" t="n">
         <v>2017</v>
@@ -12400,7 +12400,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B630" t="n">
         <v>2017</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B631" t="n">
         <v>2017</v>
@@ -12438,7 +12438,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B632" t="n">
         <v>2017</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B633" t="n">
         <v>2017</v>
@@ -12476,7 +12476,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B634" t="n">
         <v>2017</v>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B635" t="n">
         <v>2017</v>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B636" t="n">
         <v>2017</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B637" t="n">
         <v>2017</v>
@@ -12552,7 +12552,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B638" t="n">
         <v>2017</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B639" t="n">
         <v>2017</v>
@@ -12590,7 +12590,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B640" t="n">
         <v>2017</v>
@@ -12609,7 +12609,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B641" t="n">
         <v>2017</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B642" t="n">
         <v>2017</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B643" t="n">
         <v>2017</v>
@@ -12666,7 +12666,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B644" t="n">
         <v>2017</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B645" t="n">
         <v>2017</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B646" t="n">
         <v>2017</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B647" t="n">
         <v>2017</v>
@@ -12742,7 +12742,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B648" t="n">
         <v>2017</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>42917</v>
+        <v>42947</v>
       </c>
       <c r="B649" t="n">
         <v>2017</v>
@@ -12780,7 +12780,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B650" t="n">
         <v>2017</v>
@@ -12799,7 +12799,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B651" t="n">
         <v>2017</v>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B652" t="n">
         <v>2017</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B653" t="n">
         <v>2017</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B654" t="n">
         <v>2017</v>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B655" t="n">
         <v>2017</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B656" t="n">
         <v>2017</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B657" t="n">
         <v>2017</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B658" t="n">
         <v>2017</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B659" t="n">
         <v>2017</v>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B660" t="n">
         <v>2017</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B661" t="n">
         <v>2017</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B662" t="n">
         <v>2017</v>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B663" t="n">
         <v>2017</v>
@@ -13046,7 +13046,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B664" t="n">
         <v>2017</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B665" t="n">
         <v>2017</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B666" t="n">
         <v>2017</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B667" t="n">
         <v>2017</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B668" t="n">
         <v>2017</v>
@@ -13141,7 +13141,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B669" t="n">
         <v>2017</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B670" t="n">
         <v>2017</v>
@@ -13179,7 +13179,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B671" t="n">
         <v>2017</v>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B672" t="n">
         <v>2017</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>42826</v>
+        <v>42855</v>
       </c>
       <c r="B673" t="n">
         <v>2017</v>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B674" t="n">
         <v>2017</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B675" t="n">
         <v>2017</v>
@@ -13274,7 +13274,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B676" t="n">
         <v>2017</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B677" t="n">
         <v>2017</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B678" t="n">
         <v>2017</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B679" t="n">
         <v>2017</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B680" t="n">
         <v>2017</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B681" t="n">
         <v>2017</v>
@@ -13388,7 +13388,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B682" t="n">
         <v>2017</v>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B683" t="n">
         <v>2017</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B684" t="n">
         <v>2017</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B685" t="n">
         <v>2017</v>
@@ -13464,7 +13464,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B686" t="n">
         <v>2017</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B687" t="n">
         <v>2017</v>
@@ -13502,7 +13502,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B688" t="n">
         <v>2017</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B689" t="n">
         <v>2017</v>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B690" t="n">
         <v>2017</v>
@@ -13559,7 +13559,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B691" t="n">
         <v>2017</v>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B692" t="n">
         <v>2017</v>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B693" t="n">
         <v>2017</v>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B694" t="n">
         <v>2017</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B695" t="n">
         <v>2017</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B696" t="n">
         <v>2017</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>42736</v>
+        <v>42766</v>
       </c>
       <c r="B697" t="n">
         <v>2017</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B698" t="n">
         <v>2016</v>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B699" t="n">
         <v>2016</v>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B700" t="n">
         <v>2016</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B701" t="n">
         <v>2016</v>
@@ -13768,7 +13768,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B702" t="n">
         <v>2016</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B703" t="n">
         <v>2016</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B704" t="n">
         <v>2016</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B705" t="n">
         <v>2016</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B706" t="n">
         <v>2016</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B707" t="n">
         <v>2016</v>
@@ -13882,7 +13882,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B708" t="n">
         <v>2016</v>
@@ -13901,7 +13901,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B709" t="n">
         <v>2016</v>
@@ -13920,7 +13920,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B710" t="n">
         <v>2016</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B711" t="n">
         <v>2016</v>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B712" t="n">
         <v>2016</v>
@@ -13977,7 +13977,7 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B713" t="n">
         <v>2016</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B714" t="n">
         <v>2016</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B715" t="n">
         <v>2016</v>
@@ -14034,7 +14034,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B716" t="n">
         <v>2016</v>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B717" t="n">
         <v>2016</v>
@@ -14072,7 +14072,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B718" t="n">
         <v>2016</v>
@@ -14091,7 +14091,7 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B719" t="n">
         <v>2016</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B720" t="n">
         <v>2016</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>42644</v>
+        <v>42674</v>
       </c>
       <c r="B721" t="n">
         <v>2016</v>
@@ -14148,7 +14148,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B722" t="n">
         <v>2016</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B723" t="n">
         <v>2016</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B724" t="n">
         <v>2016</v>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B725" t="n">
         <v>2016</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B726" t="n">
         <v>2016</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B727" t="n">
         <v>2016</v>
@@ -14262,7 +14262,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B728" t="n">
         <v>2016</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B729" t="n">
         <v>2016</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B730" t="n">
         <v>2016</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B731" t="n">
         <v>2016</v>
@@ -14338,7 +14338,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B732" t="n">
         <v>2016</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B733" t="n">
         <v>2016</v>
@@ -14376,7 +14376,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B734" t="n">
         <v>2016</v>
@@ -14395,7 +14395,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B735" t="n">
         <v>2016</v>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B736" t="n">
         <v>2016</v>
@@ -14433,7 +14433,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B737" t="n">
         <v>2016</v>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B738" t="n">
         <v>2016</v>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B739" t="n">
         <v>2016</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B740" t="n">
         <v>2016</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B741" t="n">
         <v>2016</v>
@@ -14528,7 +14528,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B742" t="n">
         <v>2016</v>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B743" t="n">
         <v>2016</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B744" t="n">
         <v>2016</v>
@@ -14585,7 +14585,7 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>42552</v>
+        <v>42582</v>
       </c>
       <c r="B745" t="n">
         <v>2016</v>
@@ -14604,7 +14604,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B746" t="n">
         <v>2016</v>
@@ -14623,7 +14623,7 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B747" t="n">
         <v>2016</v>
@@ -14642,7 +14642,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B748" t="n">
         <v>2016</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B749" t="n">
         <v>2016</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B750" t="n">
         <v>2016</v>
@@ -14699,7 +14699,7 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B751" t="n">
         <v>2016</v>
@@ -14718,7 +14718,7 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B752" t="n">
         <v>2016</v>
@@ -14737,7 +14737,7 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B753" t="n">
         <v>2016</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B754" t="n">
         <v>2016</v>
@@ -14775,7 +14775,7 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B755" t="n">
         <v>2016</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B756" t="n">
         <v>2016</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B757" t="n">
         <v>2016</v>
@@ -14832,7 +14832,7 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B758" t="n">
         <v>2016</v>
@@ -14851,7 +14851,7 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B759" t="n">
         <v>2016</v>
@@ -14870,7 +14870,7 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B760" t="n">
         <v>2016</v>
@@ -14889,7 +14889,7 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B761" t="n">
         <v>2016</v>
@@ -14908,7 +14908,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B762" t="n">
         <v>2016</v>
@@ -14927,7 +14927,7 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B763" t="n">
         <v>2016</v>
@@ -14946,7 +14946,7 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B764" t="n">
         <v>2016</v>
@@ -14965,7 +14965,7 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B765" t="n">
         <v>2016</v>
@@ -14984,7 +14984,7 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B766" t="n">
         <v>2016</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B767" t="n">
         <v>2016</v>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B768" t="n">
         <v>2016</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>42461</v>
+        <v>42490</v>
       </c>
       <c r="B769" t="n">
         <v>2016</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B770" t="n">
         <v>2016</v>
@@ -15079,7 +15079,7 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B771" t="n">
         <v>2016</v>
@@ -15098,7 +15098,7 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B772" t="n">
         <v>2016</v>
@@ -15117,7 +15117,7 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B773" t="n">
         <v>2016</v>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B774" t="n">
         <v>2016</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B775" t="n">
         <v>2016</v>
@@ -15174,7 +15174,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B776" t="n">
         <v>2016</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B777" t="n">
         <v>2016</v>
@@ -15212,7 +15212,7 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B778" t="n">
         <v>2016</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B779" t="n">
         <v>2016</v>
@@ -15250,7 +15250,7 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B780" t="n">
         <v>2016</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B781" t="n">
         <v>2016</v>
@@ -15288,7 +15288,7 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B782" t="n">
         <v>2016</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B783" t="n">
         <v>2016</v>
@@ -15326,7 +15326,7 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B784" t="n">
         <v>2016</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B785" t="n">
         <v>2016</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B786" t="n">
         <v>2016</v>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B787" t="n">
         <v>2016</v>
@@ -15402,7 +15402,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B788" t="n">
         <v>2016</v>
@@ -15421,7 +15421,7 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B789" t="n">
         <v>2016</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B790" t="n">
         <v>2016</v>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B791" t="n">
         <v>2016</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B792" t="n">
         <v>2016</v>
@@ -15497,7 +15497,7 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>42370</v>
+        <v>42400</v>
       </c>
       <c r="B793" t="n">
         <v>2016</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B794" t="n">
         <v>2015</v>
@@ -15535,7 +15535,7 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B795" t="n">
         <v>2015</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B796" t="n">
         <v>2015</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B797" t="n">
         <v>2015</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B798" t="n">
         <v>2015</v>
@@ -15611,7 +15611,7 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B799" t="n">
         <v>2015</v>
@@ -15630,7 +15630,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B800" t="n">
         <v>2015</v>
@@ -15649,7 +15649,7 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B801" t="n">
         <v>2015</v>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B802" t="n">
         <v>2015</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B803" t="n">
         <v>2015</v>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B804" t="n">
         <v>2015</v>
@@ -15725,7 +15725,7 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B805" t="n">
         <v>2015</v>
@@ -15744,7 +15744,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B806" t="n">
         <v>2015</v>
@@ -15763,7 +15763,7 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B807" t="n">
         <v>2015</v>
@@ -15782,7 +15782,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B808" t="n">
         <v>2015</v>
@@ -15801,7 +15801,7 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B809" t="n">
         <v>2015</v>
@@ -15820,7 +15820,7 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B810" t="n">
         <v>2015</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B811" t="n">
         <v>2015</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B812" t="n">
         <v>2015</v>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B813" t="n">
         <v>2015</v>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B814" t="n">
         <v>2015</v>
@@ -15915,7 +15915,7 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B815" t="n">
         <v>2015</v>
@@ -15934,7 +15934,7 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B816" t="n">
         <v>2015</v>
@@ -15953,7 +15953,7 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="B817" t="n">
         <v>2015</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B818" t="n">
         <v>2015</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B819" t="n">
         <v>2015</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B820" t="n">
         <v>2015</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B821" t="n">
         <v>2015</v>
@@ -16048,7 +16048,7 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B822" t="n">
         <v>2015</v>
@@ -16067,7 +16067,7 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B823" t="n">
         <v>2015</v>
@@ -16086,7 +16086,7 @@
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B824" t="n">
         <v>2015</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B825" t="n">
         <v>2015</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B826" t="n">
         <v>2015</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B827" t="n">
         <v>2015</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B828" t="n">
         <v>2015</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B829" t="n">
         <v>2015</v>
@@ -16200,7 +16200,7 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B830" t="n">
         <v>2015</v>
@@ -16219,7 +16219,7 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B831" t="n">
         <v>2015</v>
@@ -16238,7 +16238,7 @@
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B832" t="n">
         <v>2015</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B833" t="n">
         <v>2015</v>
@@ -16276,7 +16276,7 @@
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B834" t="n">
         <v>2015</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B835" t="n">
         <v>2015</v>
@@ -16314,7 +16314,7 @@
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B836" t="n">
         <v>2015</v>
@@ -16333,7 +16333,7 @@
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B837" t="n">
         <v>2015</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B838" t="n">
         <v>2015</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B839" t="n">
         <v>2015</v>
@@ -16390,7 +16390,7 @@
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B840" t="n">
         <v>2015</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>42186</v>
+        <v>42216</v>
       </c>
       <c r="B841" t="n">
         <v>2015</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B842" t="n">
         <v>2015</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B843" t="n">
         <v>2015</v>
@@ -16466,7 +16466,7 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B844" t="n">
         <v>2015</v>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B845" t="n">
         <v>2015</v>
@@ -16504,7 +16504,7 @@
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B846" t="n">
         <v>2015</v>
@@ -16523,7 +16523,7 @@
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B847" t="n">
         <v>2015</v>
@@ -16542,7 +16542,7 @@
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B848" t="n">
         <v>2015</v>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B849" t="n">
         <v>2015</v>
@@ -16580,7 +16580,7 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B850" t="n">
         <v>2015</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B851" t="n">
         <v>2015</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B852" t="n">
         <v>2015</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B853" t="n">
         <v>2015</v>
@@ -16656,7 +16656,7 @@
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B854" t="n">
         <v>2015</v>
@@ -16675,7 +16675,7 @@
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B855" t="n">
         <v>2015</v>
@@ -16694,7 +16694,7 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B856" t="n">
         <v>2015</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B857" t="n">
         <v>2015</v>
@@ -16732,7 +16732,7 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B858" t="n">
         <v>2015</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B859" t="n">
         <v>2015</v>
@@ -16770,7 +16770,7 @@
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B860" t="n">
         <v>2015</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B861" t="n">
         <v>2015</v>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B862" t="n">
         <v>2015</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B863" t="n">
         <v>2015</v>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B864" t="n">
         <v>2015</v>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>42095</v>
+        <v>42124</v>
       </c>
       <c r="B865" t="n">
         <v>2015</v>
@@ -16884,7 +16884,7 @@
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B866" t="n">
         <v>2015</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B867" t="n">
         <v>2015</v>
@@ -16922,7 +16922,7 @@
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B868" t="n">
         <v>2015</v>
@@ -16941,7 +16941,7 @@
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B869" t="n">
         <v>2015</v>
@@ -16960,7 +16960,7 @@
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B870" t="n">
         <v>2015</v>
@@ -16979,7 +16979,7 @@
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B871" t="n">
         <v>2015</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B872" t="n">
         <v>2015</v>
@@ -17017,7 +17017,7 @@
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B873" t="n">
         <v>2015</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B874" t="n">
         <v>2015</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B875" t="n">
         <v>2015</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B876" t="n">
         <v>2015</v>
@@ -17093,7 +17093,7 @@
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B877" t="n">
         <v>2015</v>
@@ -17112,7 +17112,7 @@
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B878" t="n">
         <v>2015</v>
@@ -17131,7 +17131,7 @@
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B879" t="n">
         <v>2015</v>
@@ -17150,7 +17150,7 @@
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B880" t="n">
         <v>2015</v>
@@ -17169,7 +17169,7 @@
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B881" t="n">
         <v>2015</v>
@@ -17188,7 +17188,7 @@
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B882" t="n">
         <v>2015</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B883" t="n">
         <v>2015</v>
@@ -17226,7 +17226,7 @@
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B884" t="n">
         <v>2015</v>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B885" t="n">
         <v>2015</v>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B886" t="n">
         <v>2015</v>
@@ -17283,7 +17283,7 @@
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B887" t="n">
         <v>2015</v>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B888" t="n">
         <v>2015</v>
@@ -17321,7 +17321,7 @@
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>42005</v>
+        <v>42035</v>
       </c>
       <c r="B889" t="n">
         <v>2015</v>
@@ -17340,7 +17340,7 @@
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B890" t="n">
         <v>2014</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B891" t="n">
         <v>2014</v>
@@ -17378,7 +17378,7 @@
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B892" t="n">
         <v>2014</v>
@@ -17397,7 +17397,7 @@
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B893" t="n">
         <v>2014</v>
@@ -17416,7 +17416,7 @@
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B894" t="n">
         <v>2014</v>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B895" t="n">
         <v>2014</v>
@@ -17454,7 +17454,7 @@
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B896" t="n">
         <v>2014</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B897" t="n">
         <v>2014</v>
@@ -17492,7 +17492,7 @@
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B898" t="n">
         <v>2014</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B899" t="n">
         <v>2014</v>
@@ -17530,7 +17530,7 @@
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B900" t="n">
         <v>2014</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B901" t="n">
         <v>2014</v>
@@ -17568,7 +17568,7 @@
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B902" t="n">
         <v>2014</v>
@@ -17587,7 +17587,7 @@
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B903" t="n">
         <v>2014</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B904" t="n">
         <v>2014</v>
@@ -17625,7 +17625,7 @@
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B905" t="n">
         <v>2014</v>
@@ -17644,7 +17644,7 @@
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B906" t="n">
         <v>2014</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B907" t="n">
         <v>2014</v>
@@ -17682,7 +17682,7 @@
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B908" t="n">
         <v>2014</v>
@@ -17701,7 +17701,7 @@
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B909" t="n">
         <v>2014</v>
@@ -17720,7 +17720,7 @@
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B910" t="n">
         <v>2014</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B911" t="n">
         <v>2014</v>
@@ -17758,7 +17758,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B912" t="n">
         <v>2014</v>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>41913</v>
+        <v>41943</v>
       </c>
       <c r="B913" t="n">
         <v>2014</v>
@@ -17796,7 +17796,7 @@
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B914" t="n">
         <v>2014</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B915" t="n">
         <v>2014</v>
@@ -17834,7 +17834,7 @@
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B916" t="n">
         <v>2014</v>
@@ -17853,7 +17853,7 @@
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B917" t="n">
         <v>2014</v>
@@ -17872,7 +17872,7 @@
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B918" t="n">
         <v>2014</v>
@@ -17891,7 +17891,7 @@
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B919" t="n">
         <v>2014</v>
@@ -17910,7 +17910,7 @@
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B920" t="n">
         <v>2014</v>
@@ -17929,7 +17929,7 @@
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B921" t="n">
         <v>2014</v>
@@ -17948,7 +17948,7 @@
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B922" t="n">
         <v>2014</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B923" t="n">
         <v>2014</v>
@@ -17986,7 +17986,7 @@
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B924" t="n">
         <v>2014</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B925" t="n">
         <v>2014</v>
@@ -18024,7 +18024,7 @@
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B926" t="n">
         <v>2014</v>
@@ -18043,7 +18043,7 @@
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B927" t="n">
         <v>2014</v>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B928" t="n">
         <v>2014</v>
@@ -18081,7 +18081,7 @@
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B929" t="n">
         <v>2014</v>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B930" t="n">
         <v>2014</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B931" t="n">
         <v>2014</v>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B932" t="n">
         <v>2014</v>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B933" t="n">
         <v>2014</v>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B934" t="n">
         <v>2014</v>
@@ -18195,7 +18195,7 @@
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B935" t="n">
         <v>2014</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B936" t="n">
         <v>2014</v>
@@ -18233,7 +18233,7 @@
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>41821</v>
+        <v>41851</v>
       </c>
       <c r="B937" t="n">
         <v>2014</v>
@@ -18252,7 +18252,7 @@
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B938" t="n">
         <v>2014</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B939" t="n">
         <v>2014</v>
@@ -18290,7 +18290,7 @@
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B940" t="n">
         <v>2014</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B941" t="n">
         <v>2014</v>
@@ -18328,7 +18328,7 @@
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B942" t="n">
         <v>2014</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B943" t="n">
         <v>2014</v>
@@ -18366,7 +18366,7 @@
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B944" t="n">
         <v>2014</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B945" t="n">
         <v>2014</v>
@@ -18404,7 +18404,7 @@
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B946" t="n">
         <v>2014</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B947" t="n">
         <v>2014</v>
@@ -18442,7 +18442,7 @@
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B948" t="n">
         <v>2014</v>
@@ -18461,7 +18461,7 @@
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B949" t="n">
         <v>2014</v>
@@ -18480,7 +18480,7 @@
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B950" t="n">
         <v>2014</v>
@@ -18499,7 +18499,7 @@
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B951" t="n">
         <v>2014</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B952" t="n">
         <v>2014</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B953" t="n">
         <v>2014</v>
@@ -18556,7 +18556,7 @@
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B954" t="n">
         <v>2014</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B955" t="n">
         <v>2014</v>
@@ -18594,7 +18594,7 @@
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B956" t="n">
         <v>2014</v>
@@ -18613,7 +18613,7 @@
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B957" t="n">
         <v>2014</v>
@@ -18632,7 +18632,7 @@
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B958" t="n">
         <v>2014</v>
@@ -18651,7 +18651,7 @@
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B959" t="n">
         <v>2014</v>
@@ -18670,7 +18670,7 @@
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B960" t="n">
         <v>2014</v>
@@ -18689,7 +18689,7 @@
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>41730</v>
+        <v>41759</v>
       </c>
       <c r="B961" t="n">
         <v>2014</v>
@@ -18708,7 +18708,7 @@
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B962" t="n">
         <v>2014</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B963" t="n">
         <v>2014</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B964" t="n">
         <v>2014</v>
@@ -18765,7 +18765,7 @@
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B965" t="n">
         <v>2014</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B966" t="n">
         <v>2014</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B967" t="n">
         <v>2014</v>
@@ -18822,7 +18822,7 @@
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B968" t="n">
         <v>2014</v>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B969" t="n">
         <v>2014</v>
@@ -18860,7 +18860,7 @@
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B970" t="n">
         <v>2014</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B971" t="n">
         <v>2014</v>
@@ -18898,7 +18898,7 @@
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B972" t="n">
         <v>2014</v>
@@ -18917,7 +18917,7 @@
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B973" t="n">
         <v>2014</v>
@@ -18936,7 +18936,7 @@
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B974" t="n">
         <v>2014</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B975" t="n">
         <v>2014</v>
@@ -18974,7 +18974,7 @@
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B976" t="n">
         <v>2014</v>
@@ -18993,7 +18993,7 @@
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B977" t="n">
         <v>2014</v>
@@ -19012,7 +19012,7 @@
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B978" t="n">
         <v>2014</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B979" t="n">
         <v>2014</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B980" t="n">
         <v>2014</v>
@@ -19069,7 +19069,7 @@
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B981" t="n">
         <v>2014</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B982" t="n">
         <v>2014</v>
@@ -19107,7 +19107,7 @@
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B983" t="n">
         <v>2014</v>
@@ -19126,7 +19126,7 @@
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B984" t="n">
         <v>2014</v>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>41640</v>
+        <v>41670</v>
       </c>
       <c r="B985" t="n">
         <v>2014</v>
